--- a/pred_ohlcv/54_21/2020-01-16 NPXS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 NPXS ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>21085580.6969508</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>21775235.86935081</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>18445779.40385081</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>12063623.46645081</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>13335474.85985081</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>13621360.6255508</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5908756.485350804</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5908756.485350804</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>5908756.485350804</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>14539096.8031508</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>14539096.8031508</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>14542596.8031508</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>13011904.4778508</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>13241517.0965508</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>12699498.0965508</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>7642624.304150804</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>7663775.304150804</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>27826778.8335508</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>21889883.6665508</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>32077661.5087508</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>32094067.5087508</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>37122061.1051508</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>40492205.1553508</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>40170093.5219508</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>29005745.93787884</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>29308803.85517884</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>32326863.97497884</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>36402319.5417013</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>36406730.2627013</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>34145683.25980131</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>54329796.4344013</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>56317161.2882013</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>75429785.54730131</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>69159181.76219533</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>69159181.76219533</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>69138536.88319534</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>68845580.54599534</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>68857934.54599534</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>68857934.54599534</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>72940865.85399534</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>76299119.79839534</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>74288451.79549533</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>74288451.79549533</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>75995994.79549533</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>79199488.56909533</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>79199488.56909533</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>84534490.43739533</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>84319588.42999533</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>83350251.58939533</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 NPXS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 NPXS ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>20052235.31376002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>20052235.31376002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>20052235.31376002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>20099733.73676002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>18039500.36256002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>21085580.6969508</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>21775235.86935081</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>18445779.40385081</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>8422530.066650808</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>12063623.46645081</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>14539096.8031508</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>14539096.8031508</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>14542596.8031508</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>13011904.4778508</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>12699498.0965508</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>7642624.304150804</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>27826778.8335508</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>75886116.58329533</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>71886116.58329533</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>70997226.17739533</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>71316002.24839532</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>71351684.24839532</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>68971390.60169533</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>68976411.31819533</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>68976411.31819533</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>69159181.76219533</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>69159181.76219533</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>69138536.88319534</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>68845580.54599534</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>68857934.54599534</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>72940865.85399534</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>76299119.79839534</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>74288451.79549533</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>74288451.79549533</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>75995994.79549533</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>79199488.56909533</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>79199488.56909533</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>84534490.43739533</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>84319588.42999533</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>83350251.58939533</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
